--- a/outputs/fft-p__Firmicutes_A.xlsx
+++ b/outputs/fft-p__Firmicutes_A.xlsx
@@ -4,11 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="g__RC9-LSVM" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="g__Ruminococcus_E-LSVM-1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="g__RC9-LSVM-1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1550,7 +1552,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2809,6 +2811,3298 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c__Thermoanaerobacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9446845213789622</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.05521041394521576</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.000105064675822135</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9446845213789622</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9662212284695468</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.03375828314604947</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.048838440374501e-05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9662212284695468</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9663083096927239</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03368292691975104</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.763387525052145e-06</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9663083096927239</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9199304186149549</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.08000507358888871</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.450779615641838e-05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9199304186149549</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9792002581446775</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02079891862595203</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.232293704872333e-07</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9792002581446775</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9005414617219414</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.09872557725833286</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0007329610197256951</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9005414617219414</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9747636002764219</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02523518492064528</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.214802932786862e-06</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9747636002764219</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.914801874160191</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08382773555436265</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.001370390285446463</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.914801874160191</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9513658525586085</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04845886818417134</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0001752792572202663</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9513658525586085</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9841681798372992</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01583160961561836</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.105470822786642e-07</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9841681798372992</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9838140297475076</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01616199813204733</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.397212044496113e-05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9838140297475076</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8802407299593472</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1197170636186192</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.220642203357599e-05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8802407299593472</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9957941216942691</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.004205723922591866</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.543831390892434e-07</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9957941216942691</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9837160127586748</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01622049752683143</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.348971449368389e-05</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9837160127586748</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9341887883164837</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.06542057291401514</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0003906387695012961</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9341887883164837</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9204715312260894</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07952780519790478</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.635760057770246e-07</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9204715312260894</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9582072294169396</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04179239009407439</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.804889860238205e-07</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9582072294169396</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9918117156173846</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.008188170892487778</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.134901275674112e-07</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9918117156173846</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9750205423261257</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02497655472643245</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.902947441751953e-06</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9750205423261257</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9811963811825549</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01865510853592686</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0001485102815181771</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9811963811825549</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6779708334436072</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3220202238883193</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.942668073509545e-06</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6779708334436072</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9313735157533034</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0684445381468593</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0001819460998372528</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9313735157533034</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8649898723475591</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1341629634226905</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0008471642297503884</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8649898723475591</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9947004215762377</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.005295313099249663</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.265324512619813e-06</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9947004215762377</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9684824275110908</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.03139047162860144</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0001271008603078318</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9684824275110908</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8553667252350017</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1446174092466419</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.586551835629735e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8553667252350017</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9584846930611421</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.04151062263269883</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.684306158991994e-06</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9584846930611421</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9871926660413853</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01280711092258278</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.230360319153203e-07</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9871926660413853</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9589442893421248</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.04105000908538971</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.701572485278641e-06</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9589442893421248</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9567519612300666</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.04317664635249466</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.139241743892601e-05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9567519612300666</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9490170413892318</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05097505474910149</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7.903861666826846e-06</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9490170413892318</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9816711608871908</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01832402533030438</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.813782504790215e-06</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9816711608871908</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9837672795837662</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01620475131390284</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.796910233108399e-05</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9837672795837662</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9492528512546681</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.05033780821013835</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0004093405351937042</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9492528512546681</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9844530110047873</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01551586027053518</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.112872467748746e-05</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9844530110047873</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9587582083428677</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.04052058145786239</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0007212101992700112</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9587582083428677</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9919317393880697</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.007887962029585457</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0001802985823448884</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9919317393880697</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9918982537061617</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.008101313584803621</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.327090346440655e-07</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9918982537061617</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9439471114922234</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.05588586000245642</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0001670285053200446</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9439471114922234</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9432463934574234</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.05674271084753107</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.08956950455054e-05</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9432463934574234</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9828324884284073</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01713639442557334</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.111714601933725e-05</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9828324884284073</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9846327039907077</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01526442517453237</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.000102870834759988</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9846327039907077</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9850677502203724</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01493160022901854</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6.49550609089255e-07</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9850677502203724</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9118852194659973</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.08776394728467665</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0003508332493261371</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9118852194659973</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9552241828614358</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0444532765262686</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0003225406122956328</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9552241828614358</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.981548297728043</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01844938896742511</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.313304531904752e-06</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.981548297728043</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9560660048915981</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.04393241076325433</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.584345147569962e-06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9560660048915981</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9779542661850407</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.02200113479376107</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.459902119824848e-05</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9779542661850407</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9202033266525345</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.07940622546298887</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0003904478844766939</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9202033266525345</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.981158862962563</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01884071269868804</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.243387489228763e-07</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.981158862962563</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9779262904026087</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.02207339005088363</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.195465076959469e-07</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9779262904026087</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9829497720935475</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01699585618507594</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.437172137657575e-05</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9829497720935475</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9043053918620512</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.09566034433423862</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.426380371008366e-05</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9043053918620512</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9921250146525161</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.007812562634384077</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.242271309976601e-05</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9921250146525161</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9643660646819039</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.03562281823274897</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.111708534707021e-05</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.9643660646819039</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9240509900127759</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.07594808339995478</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9.265872692855214e-07</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9240509900127759</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9786909448039358</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.021309000869574</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.43264901470922e-08</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.9786909448039358</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9809481479169861</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01903388090785628</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.797117515753885e-05</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9809481479169861</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c__Thermoanaerobacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG722</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8785254285387191</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1184377081477312</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0030368633135498</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8785254285387191</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG826</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8836797707377142</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1150136514110232</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.001306577851262555</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8836797707377142</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG487</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8683164031401588</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1294909739181761</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00219262294166509</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8683164031401588</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG478</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8164624571238384</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1799484122556101</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.003589130620551379</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8164624571238384</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG352</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6792885745056413</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2840483183793881</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03666310711497064</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6792885745056413</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG629</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9306889939414991</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.06307967503484364</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.006231331023657279</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9306889939414991</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG523</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8010454852097423</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1922453617467109</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.006709153043547024</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8010454852097423</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG510</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9318555800993839</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06607572771304485</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.002068692187571367</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9318555800993839</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG717</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6662413164129546</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3285146530107336</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.005244030576311896</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6662413164129546</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG679</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8106769259480698</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1684861573409856</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.02083691671094453</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8106769259480698</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG667</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.761980179759729</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.234397312041366</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.003622508198905106</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.761980179759729</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG645</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9151423982021055</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.06398522145885106</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02087238033904344</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9151423982021055</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG625</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7217782646397524</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2530022751882566</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02521946017199107</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7217782646397524</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG331</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.75991402473463</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.21626849180476</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02381748346061013</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.75991402473463</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG579</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9131376952319973</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.06583394491036575</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02102835985763696</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9131376952319973</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG193</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.710378848116636</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2873016259907065</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.002319525892657505</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.710378848116636</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG583</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7890770044960405</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2033757695115012</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.007547225992458277</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7890770044960405</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG564</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8118906741211083</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.176773095554288</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01133623032460371</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8118906741211083</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG489</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.897962402509273</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.09177431209206829</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01026328539865877</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.897962402509273</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG345</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7381934291030173</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.258464231183708</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.003342339713274763</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7381934291030173</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG421</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8536222499305559</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.143326343971684</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.003051406097760233</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8536222499305559</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG392</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8867934682041133</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1036988260919222</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.009507705703964519</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8867934682041133</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG250</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8048965183711755</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1890275698488893</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.006075911779935234</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8048965183711755</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG790</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8551017927580469</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1228340914819957</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.02206411575995743</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8551017927580469</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG470</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9348151546272039</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05902945046648914</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.006155394906306905</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9348151546272039</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG253</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4908196841926217</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5087305837339994</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0004497320733788708</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5087305837339994</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG590</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.852473128619786</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1436299196995721</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.003896951680642078</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.852473128619786</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG784</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8623374297731882</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1153463483163778</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.02231622191043386</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8623374297731882</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG818</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7080028095124932</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2606862051152135</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.03131098537229354</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7080028095124932</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG257</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8723299945084881</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1219730573355606</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.005696948155951255</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8723299945084881</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG720</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8519134808601316</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1472644548312027</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.00082206430866569</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8519134808601316</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG634</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8691218363492057</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1304009434507197</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0004772202000746362</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8691218363492057</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG205</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9573723224045265</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.03332422995713086</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.009303447638342486</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9573723224045265</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG481</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.870356403450729</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1202386807102299</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.009404915839041241</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.870356403450729</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG615</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8720864129825867</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1121697365842024</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01574385043321077</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8720864129825867</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG173</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7960576003221146</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.2022104263446029</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.001731973333282349</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7960576003221146</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG142</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9291978334762045</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.06929911171022293</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.001503054813572425</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9291978334762045</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>hRUG909</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9660824566311284</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.02448048311296708</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.009437060255904689</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9660824566311284</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG395</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8773216082523227</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1219723687464311</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0007060230012460861</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8773216082523227</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG406</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7827535384495103</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.2124725176714492</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.004773943879040367</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7827535384495103</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG387</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8973648780560564</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.06738881710316301</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.03524630484078076</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8973648780560564</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG553</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7957582686366109</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1871767941602326</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.01706493720315643</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7957582686366109</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>hRUG873</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8319300323749409</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1600582556481128</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.008011711976946372</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8319300323749409</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG568</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8821808727622538</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1017884206372333</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.01603070660051292</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8821808727622538</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG707</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9471929885655265</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.04945197348245158</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.003355037952022089</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9471929885655265</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG528</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7387601974832486</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.2548888897053717</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.006350912811379773</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7387601974832486</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG603</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.6903736138175502</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.2747573934021245</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0348689927803251</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.6903736138175502</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG436</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8895074039170019</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.09070529549619348</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.01978730058680457</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8895074039170019</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG773</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.4504249261744319</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5234985431822219</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.02607653064334611</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5234985431822219</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG619</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7057806593969775</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.2911922774498908</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.003027063153131589</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7057806593969775</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG386</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8841878745036839</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1048086504435079</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.01100347505280838</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.8841878745036839</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG544</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8161796895854615</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.1828175684256341</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.001002741988904399</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8161796895854615</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/fft-p__Firmicutes_A.xlsx
+++ b/outputs/fft-p__Firmicutes_A.xlsx
@@ -4,13 +4,16 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="g__RC9-LSVM" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="g__Ruminococcus_E-LSVM-1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="g__RC9-LSVM-1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="g__Prevotella-LSVM" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="g__C941-LSVM" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="f__Lachnospiracea-LSVM" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -57,18 +60,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1552,7 +1555,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2811,7 +2814,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4544,7 +4547,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -6103,6 +6106,6282 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c__Thermoanaerobacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.781999163165921</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.7701716659656451</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5.60384221624348</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8562415350949762</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.270470686630995</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.85873170330402</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9497563030431461</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.129511976651864</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.890780787406607</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4265123558165463</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.5255877117854565</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3.725967777808858</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6389927942043595</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.884607968503739</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2.23009460419838</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.165754258552639</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.152396488783136</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-4.938151081003545</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.535926744770349</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.265448292300578</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-7.127041586182748</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5172569375594233</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.4746816076431363</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-5.547764920653607</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.136833453307954</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.062033939094314</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5.588132216885822</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.068261527877283</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.00274403673299</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-6.555336900792005</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.138940353956074</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.234051693920199</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-3.863138174772693</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8597078999386453</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.949884110855154</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-6.593246741463695</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.399137291782975</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.672488872517102</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-2.998514924378367</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.378677996263313</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.683555011230169</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-4.172341725771378</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4688079098841119</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.549790373010432</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-4.909308421449947</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.29072359827683</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.465506881257908</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-5.249745370461929</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8266624407899555</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.829849118798765</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-4.180524414922417</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7279632629018929</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.6850103041964658</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-3.895896902657016</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2084078668578144</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.3835665877233215</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2.939639984100263</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7728309818655191</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.00102900790117</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2.601641543334475</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.325572454302824</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.54241790164481</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-4.352872100247295</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3539016325226928</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.5520925737880139</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-5.173194327334599</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.05744375878141672</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2730716498685316</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.818918270631945</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9824725221182086</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.8880313237395795</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-5.152672678759313</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4392765597421461</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.4912069620478819</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-4.211856986850762</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.045519473359785</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.03712841519658</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-6.087316409177043</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8189238460653959</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.06782510098827</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.347750559537514</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8281010923872966</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.9004534831265075</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.39490221386695</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.055810282654245</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.092514256096429</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-4.822878270416928</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5395857924961974</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.5036494570750666</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-6.098013681702256</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7079681008200843</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.7761810687851646</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-6.485045729711802</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.533821119034615</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.526254641223686</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-6.744757550807935</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.072148495302472</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.123996566285223</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-6.264765392457743</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5630435571422446</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.3989978109279245</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-5.749006319848664</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.03064603587424</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.202295629076358</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-1.987705612175201</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.115046029368932</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.373061378151392</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-3.433895929718561</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5635090396561085</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.014736302593926</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-5.204380832869829</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.125428037551687</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.057001936315408</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-6.519460955727227</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.280390445625444</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.3117747845012503</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-4.168271104472911</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9381548178108349</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.9087925299330929</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-4.592839414215334</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.3190835288426865</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.5163688587852732</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-2.823010162540737</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8157106281970324</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.7296269671691985</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-5.349007748648552</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.131934817636549</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.035634783516005</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-5.05695808694421</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8581742083847276</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-1.157362242963708</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-4.117117363856429</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.06433213842011076</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.03252734599930085</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-4.366076973814985</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.027814701171156</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1.218505669818617</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-6.184166541533551</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.995960084692323</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-1.093704706670549</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-5.5808632327522</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1.563519630282696</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1.749907862763682</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-4.886895624374723</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.44266972578103</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.660741599557955</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-5.121289756523869</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0896440617278178</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.06427785919549611</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-4.62904544488505</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1615710638795866</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2774365569024241</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-6.932066982339711</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5078370441651144</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.4341999583131112</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-4.840399455583747</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9977685810905345</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1.148977226844435</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-5.678426191194352</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.14423446811306</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-1.276219721814316</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-4.754673476100103</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.374817217079112</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.55785761157781</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-4.866856759761298</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.565788686179214</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.6443520841414455</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-4.229972230170194</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5462663269375948</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.72375436377004</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-3.468935772182037</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9625459918035643</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1.113783088447763</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-2.131386494598165</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.7700589069490386</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.7420302649986305</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-4.992602221362463</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5138842938924667</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.6605885123912166</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-6.261861108688591</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5396825968448929</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.6389008794699956</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-4.304180847546924</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5525795608394876</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.8304802133321424</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-2.96285893128502</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9239307118621859</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.068632284251504</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-4.258561984348725</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7398429031104102</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.9091911684290409</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-3.784844197939985</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8271196279831684</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.06612309845284</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-3.218786991939754</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4214192332073987</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.5822115913015241</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-2.792229196866193</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5134724014040889</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.6043471304028917</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-6.845460850391389</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.104419748086642</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.015791171465035</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-4.327484675654244</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1.029315666638366</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.9717168683975969</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-6.216675824974305</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8989143631627386</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.009658911452775</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-3.30973197533945</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.6820311363209709</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.8586217012471725</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-3.378448001743348</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8682577596369528</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.971584075048827</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-3.683244691365955</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7710890477806606</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.8939157007596513</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-4.045546505001896</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.347542720415075</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.481425310144776</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-3.862587839936069</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.7675019266532922</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.8931804912788025</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-4.428751814417441</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7647368800165152</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.8515532777824538</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-5.468384592140253</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.6357301995408925</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.638587032794489</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-5.424504390175547</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8741165009697845</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.9370995503027538</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-5.410045768503897</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.02336769506160374</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.2026041521635921</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-3.464630063420689</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1.198231674840605</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.582029415689576</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-5.109738382973192</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1.466263515720497</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.766210024515481</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-3.850911007719613</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1.482851949365178</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.507959656957958</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-5.252809583959636</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9793145758141374</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-1.161347906645528</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-4.941218635383665</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7611903196557069</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.025149623853219</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-4.2679929354892</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9167718604406566</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.222979996406913</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-5.035282941658768</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1.040810426654323</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.184582988396472</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-6.416219143961531</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1.256353064518558</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.245161543156164</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-6.142840534535464</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.7926159245347711</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.9478767197758989</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.71859772757575</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.817159987641579</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.9231330139627191</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-4.511806506414902</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6684837124374149</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-0.5414546994212553</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5.486814965339593</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9228286981398969</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0.8766671650986003</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-3.627518390460807</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1.321736912250243</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1.577210902938033</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-6.077607764944294</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9556977709700166</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-1.042307107998502</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-5.903388228581174</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1.048801689335148</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-1.030140836381602</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-6.839777295196915</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.269806677355665</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.2350458114526671</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-4.233641860135157</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5327183249204427</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.6790695971220789</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-4.139567726831578</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5556729793622809</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.8856575578589988</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-7.408094496159996</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.1877130495307983</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.1980794389680988</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-7.705428281688431</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.7203906808547885</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.7247878798185651</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-5.585229939874453</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1.275033985336619</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1.217898640584154</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-6.780057244704373</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7086983349138353</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.509717673986876</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-4.987635948793367</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.6462317119510151</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0.5661625400902034</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-5.408546780252037</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9190054059107421</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-1.066114219250491</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-4.651625667883061</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.3835293272587228</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-0.4861832386082531</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-4.174727983076965</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.4219368962106291</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-0.4541808901424292</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-4.627881040587305</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1.066724664470258</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-1.345824500752542</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-3.360591036271661</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.6471533553334933</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0.6704584182163033</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-4.240134242318684</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1.476630262971604</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-1.564984976022391</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-5.517586374855153</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1.432905592849731</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-1.728051780781742</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-2.827266161768639</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9551175419060959</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-1.067355629999873</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-4.398930239401364</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.6825760815562957</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.5838470115210473</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-4.23227812277027</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1.105352925329116</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-1.281551808454461</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-3.795894444037523</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.72855160552475</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.7564100576628011</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-5.013496593988975</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1.12817706845185</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-1.427376930549022</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-3.66019871761183</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1.061809888282117</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-1.092855375196044</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-7.772987656401876</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4716608240470986</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.5010349733935061</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-4.132233379871585</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.6687292233505889</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.8660839130337897</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-3.535382384408321</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.07357399966271916</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.1666157555441924</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-4.74264898197808</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.1858604531871593</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0.07554299060976211</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-5.116302095636149</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.0664704819441273</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.04265982247155287</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-4.203989061737119</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.1885376129875346</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.3208974630769327</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-4.539969821127603</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.8476758273958028</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-1.175158665888853</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-3.237255596562376</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1.036409692905484</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.472558063966944</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-4.69641196409803</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1.338655660603911</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.380842602890367</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-4.863974915450436</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.2977116561045012</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.4558208397666818</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-4.061428716105404</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.5883811409414456</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0.5808498277228072</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-4.368736785397875</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.6984705662750744</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-0.9960872692311536</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-2.927765350115042</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c__Thermoanaerobacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.014456226456241</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.153258811981043</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5.106655012217387</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7433417481487453</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.8728357057553243</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3.349026552496678</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.085801509543342</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.453333033411137</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-7.035524762824999</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8058326816992708</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.009278616066561</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-4.5453437050047</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9770500689623088</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.117310920750026</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.542343194670617</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8920148811133574</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.9851884311392697</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-5.89166852876233</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9506560628950099</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.094687289274296</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5.912408008821257</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4248772846898754</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.5181328829676014</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-2.675268726497966</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.056021586550158</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.321282437570372</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.468864949118577</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9523989291328651</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.9704405164189173</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5.163168804425438</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7235877077500527</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.111546889868742</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-3.50134494047213</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.502150174393016</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.734453645100558</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-7.626855682725171</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7791568063633713</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.9634737895143853</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-9.065725035161391</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.009795967833199</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.387990710455376</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-4.539669123171116</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.305227527770043</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.353994216119548</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-4.807936667547563</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7502826161324342</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.7599112041973405</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.461859142931055</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.043416455943158</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.291168853121523</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-4.254814821448048</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9068417360074968</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.022005298778403</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-4.858663721694373</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.197992748894636</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.326911305841401</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-4.973973683404451</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5377950009603832</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.6309712220992453</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-5.547765443852238</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9418849367326866</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.153133254356046</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-5.370411696633578</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.434531510535446</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.565656641204332</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-6.279864964234318</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7011271096139943</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.8663058148181287</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-4.221715052549721</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.378772038028107</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.486975285204945</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-4.17371987225429</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.171215042590689</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.421288046260113</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-5.071661461500621</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4504638996953014</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5842884160574245</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-3.966724251316631</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.252397074892697</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.587746990611896</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.081406483874097</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.537786876110965</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.696161421037392</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.087532241330778</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8764570651885647</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.025223796277242</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-5.269726410209856</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.57514497585981</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.651681010627441</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-4.27921678186371</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.014426256086669</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1.0530780065032</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-4.50642383190015</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.564114397616034</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.7210014932891101</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-4.167008638804069</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7811903073598391</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.9514927290912386</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-5.794469224065972</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5175506784012086</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.366265140795938</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-4.127405184832766</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5895446170034949</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.6552281680496167</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-4.084304384034185</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c__Thermoanaerobacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG427</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.421971323931865</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.505731369411706</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-7.466239045786713</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG306</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.350340638032782</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.645612399620737</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-9.080141105965991</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG702</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.972954922361664</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.573922667202458</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.875748312026961</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG263</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.549990550288587</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.395747311410415</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-6.87889023364369</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG861</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.099270499170065</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.118055641672718</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-5.607237911248519</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG402</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.080324345360163</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.372834270886883</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-5.074689505398248</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG565</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.347956658525336</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.477186468979875</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-6.973289041510747</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG609</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4377405941084769</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.4013606838396667</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-8.967211748142455</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG495</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.990966115638483</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.941129845970657</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-7.194703566711054</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG381</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.080972342109954</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.269011192563528</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5.82249908918659</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG096</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.364383095776949</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.884729618550446</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-8.648389702335516</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG557</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8677791866630599</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.6826504307472284</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5.833100188736057</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG305</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.837756023338231</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.276565992860222</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-10.86176345345091</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG185</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.120101769479731</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.05049451216316</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-7.624171108495529</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG226</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.814513779648341</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.223072807742151</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-5.497053160376023</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG356</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.207179538240053</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.474978226762467</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.474800901686311</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG223</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.900065717350683</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.969877422124573</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-7.02995776674892</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG289</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.124791459450586</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.273126831146279</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-5.283463629997218</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG283</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.666927935646432</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.581156681764705</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-8.750068742681965</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG735</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.6984423977736</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.125892227661553</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-6.982409608858279</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG028</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.538263253156686</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.319171959838491</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-8.30205802885172</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG170</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.695812975585419</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.400156459494591</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-4.870359012468425</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG044</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.285963910239294</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.320817722579027</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-5.589384561886248</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG154</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.094158226145567</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.296446441552233</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-7.276762252008803</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG147</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8910732674743721</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.8669594484801232</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-4.949904883990873</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG057</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.548700753471924</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.555942111061949</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-9.609425519669367</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG607</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.113170321241866</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.56687456394755</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-6.752296957746576</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG117</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.253318497716206</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.282684369403741</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-6.02024158667716</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG214</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.804554623519873</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.947424367159432</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-7.727516774423605</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG688</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8536070351207478</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.056839855474643</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-4.85557530975823</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG285</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.631476943849095</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1.950473600307099</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-4.597993747961567</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG015</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.153012045581697</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.501417061030955</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-11.15824559023063</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG775</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3.064065819692537</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-3.24778582214354</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-9.172714114536427</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG578</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9047443574722392</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.7284084107194716</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-6.199413646960252</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>hRUG895</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.032053352427801</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.366930037227247</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-7.396171382493263</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG091</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2.387773312349667</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-2.726979085992605</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-9.344309074131456</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG009</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2.47852387929478</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-2.886108457135732</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-9.100142087559808</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG596</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.727552182892316</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.106271328053031</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-3.636298652315142</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG595</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.24286528782716</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.268022794750651</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-5.618635889260845</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG829</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.151683933519309</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.25975840174095</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-5.241084039741819</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>hRUG896</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.981950156841484</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-2.616738398485734</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-3.766878376346387</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>hRUG892</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2.119728151105863</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-2.619379046964742</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-4.965361422431971</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG531</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9110991847459288</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.179621215183832</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-4.3153055301304</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>hRUG852</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.584917593746216</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-1.501624896252939</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-7.07277499755438</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG635</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2.178949297405944</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-2.425295913570498</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-5.373160016603309</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG764</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.656831405054173</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1.673269220081767</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-6.578917391631685</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG145</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1.003516132944738</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.5796668802910089</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-12.67085215590216</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG724</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2.963880902032467</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-3.695965093527965</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-9.515789592076302</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG613</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.421011905744684</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.788691993688337</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-5.867134855331945</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>hRUG872</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1.137543835152195</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-1.302098762048364</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-3.609246030698982</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG300</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1.242096012036211</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.387115818337657</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-8.014296113095735</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG796</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.6788212428414663</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.6345271059024645</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-4.939797141574908</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG811</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.369994243469483</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1.869537573607888</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-6.113105378628321</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG809</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.237109919860722</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-3.033453227150899</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-6.625065275086392</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG268</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.360975224480723</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.907073120624912</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-4.169806614496244</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG336</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.454698539724069</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1.924933082293719</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-6.25205845078326</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG115</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3.87092156316874</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-4.525032576480367</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-12.05232403319047</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>hRUG871</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.965269096292353</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2.457976662984606</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-3.486533593934721</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG252</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.6578716309427958</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.7831000567250163</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-6.912253318461151</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG830</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.004387713363196655</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.03265992170365806</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-4.201113191501532</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG656</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1.10062820319131</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-1.307121841202249</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3.612842314553095</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG822</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.562211370274299</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1.803733231796985</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-4.830894459660621</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG819</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1.117354684976565</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.119547988916764</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-5.762211260707764</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG411</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2.135575757418996</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-2.12190302850592</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-6.12545706633257</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG006</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1.220144603895646</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.212331169476058</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-5.300698175169146</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG694</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2.036958809583436</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-2.151447201320356</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-6.67025701933362</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG389</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.081587760218707</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1.302708930610505</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-5.679864678921644</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG671</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3.183793551919623</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-3.757116372066712</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-10.67582858937321</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG824</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1.015099538129781</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.088457309239197</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-5.744308844099563</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG094</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2.311159259038964</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-3.24266427700956</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-5.47391664942538</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG128</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.57694066676571</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-2.975410233873557</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-9.486507600811345</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG191</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.407773989794712</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.842938149925384</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-9.810681036158421</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG222</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.685837741094115</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-3.282731142869952</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-7.969299312719128</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG554</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.305578231407661</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.505561515309707</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-5.1254636227348</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG611</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.907304270736321</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-2.387543112524782</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-2.305973059638069</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG512</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.8815557303828448</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1.132895029421778</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-5.210430188780206</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>hRUG868</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.65291248913433</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-1.670573571582394</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-8.191430924187795</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG850</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1.513311352854443</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1.885082230857321</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-3.806186641160248</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG588</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9886079786296565</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.026482365870371</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-6.021966850158119</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>hRUG877</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1.371223531638782</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.340385546588026</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-6.562477201957511</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>RUG561</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4797713882345561</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.5415180106780787</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-4.931839739893119</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>hRUG856</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7281327378585566</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.9033814063411848</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-5.953116385302871</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG484</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1.391870300029359</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-1.711582184794661</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-6.564683139688595</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>hRUG869</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1.726177753059297</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-2.103416610954623</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-3.309934717959155</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>hRUG859</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>3.167949018905528</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-3.608220484077896</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-8.418621441411435</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG681</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1.584464963875488</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.636886155604848</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-6.595493478792764</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG847</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1.811247334072462</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-2.187625226548721</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-5.802200277872567</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG743</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.102521852951739</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.23196626891903</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-4.240668023386148</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG655</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1.114756243619839</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.278623357400828</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-4.292070979535932</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>hRUG851</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2.112786890591384</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-2.246780532199418</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-6.635962584528762</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG710</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1.549579107346848</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-1.703600123206777</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-4.361714085031747</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG433</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1.29439701932161</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1.234453086118148</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-7.354684428969886</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG687</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1.316505643172958</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-1.311887434580453</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-6.701692209014043</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>hRUG904</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2.447321197693561</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-2.191819530888407</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-9.458930644694577</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG458</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.947655691501572</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.014200849251594</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-4.696686717084646</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG508</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1.01624093765156</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.7460476943544562</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-6.306746864289591</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG816</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1.341975517312686</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-1.929977466161746</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-6.825321455253984</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG297</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1.618759443198976</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.921344902849956</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-6.601060984599314</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>hRUG884</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8005601160992929</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-1.190438268170612</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-3.012563606937211</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG709</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2.126888197416297</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-2.237316776893983</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-7.109229172639722</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG335</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1.407596116036832</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-2.015457376820594</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-7.571423511946137</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG534</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1.306488751810031</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-1.298208265108849</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-4.853534458048599</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG692</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1.285735460962221</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-1.652314902054516</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-5.664404560198538</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG231</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2.116679640830634</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-2.310940312888969</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-7.781150854652629</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG683</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.8017290295383853</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-1.247989087980053</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-3.527491982588388</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG646</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1.276885798529789</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-1.336112914997697</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-7.232119394828368</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG035</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1.148574701021878</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-1.093163632692757</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-8.839438647004322</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG781</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2.260067617921134</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-2.430386708202838</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-8.789759963634744</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RUG308</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1.581922298567074</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-1.846302457266628</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-4.488050738390109</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG617</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9175133314345957</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-0.703054409089039</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-5.541819972920085</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>hRUG899</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9950263038567718</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-1.152749227207441</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-4.594036434526288</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG066</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2.59918394488707</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-3.356512106135735</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-11.21569553421303</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG842</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.8416786370059536</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.7292187778886644</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-5.896789767310179</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG151</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2.178300114004411</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-2.339986799557257</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-6.843787080419375</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG055</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2.223441699680627</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-2.319694741113794</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-6.966729670250523</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>hRUG886</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1.52258823702159</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-1.840441362417398</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-4.394023713573407</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG409</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1.518209670159456</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-1.706143025091218</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-5.141437089010369</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RUG375</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1.686901109828853</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-1.943822814014898</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-4.462213626529496</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG638</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2.240111385616377</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-2.777871429172821</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-5.051419188313292</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG211</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1.969208133602584</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-2.723045176763204</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-5.181030357984207</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG274</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1.424924986393869</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-1.234607644281262</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-5.855609010786192</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG477</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1.152589343151082</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-1.47879634466998</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-2.531092407869119</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>hRUG875</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1.496454446199182</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.895949806759405</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-3.503529515446471</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG391</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1.551797903472099</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.622362105560747</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-8.28390450614344</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>hRUG870</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1.34060925434594</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-1.519893139833026</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-6.137006032013108</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>hRUG853</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.6395605675628621</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0.575196191875074</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-6.628608350930798</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG441</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2.428176311845379</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-2.580610726114513</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-6.630104592224455</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>RUG304</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9782834551328118</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-1.197848933690131</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-5.445365270351665</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RUG254</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2.120268740140631</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-2.212486405032183</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-7.904981470379154</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>RUG227</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1.312781972748436</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-1.456006863367779</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-4.11986621249935</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>RUG584</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1.414820349609228</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-1.671705242868839</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-5.226164114493785</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/outputs/fft-p__Firmicutes_A.xlsx
+++ b/outputs/fft-p__Firmicutes_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515D9CAF-80DB-D04C-B031-2B52E8391F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4082763A-C29A-9F42-B8F0-F6EAA0A2BD1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="18" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="18" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__RC9-LSVM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <sheet name="g__Prevotella-LSVM-2" sheetId="18" r:id="rId23"/>
     <sheet name="g__C941-LSVM-2" sheetId="19" r:id="rId24"/>
     <sheet name="f__Lachnospiracea-LSVM-2" sheetId="20" r:id="rId25"/>
-    <sheet name="statistics" sheetId="26" r:id="rId26"/>
+    <sheet name="statistics-2" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/outputs/fft-p__Firmicutes_A.xlsx
+++ b/outputs/fft-p__Firmicutes_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CCEFC7-645C-A04A-9520-E1D077225B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89355EA1-CFBB-7D42-9B87-AC1618134018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="21" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1279,9 +1279,6 @@
     <t>reject</t>
   </si>
   <si>
-    <t>alpha = 30</t>
-  </si>
-  <si>
     <t>correct</t>
   </si>
   <si>
@@ -1307,6 +1304,9 @@
   </si>
   <si>
     <t>g__CAG-791</t>
+  </si>
+  <si>
+    <t>alpha = 2</t>
   </si>
 </sst>
 </file>
@@ -36532,30 +36532,30 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" t="s">
         <v>411</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B3" s="3">
         <v>0.93700787401574803</v>
@@ -36568,7 +36568,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B4" s="3">
         <v>0.60305343511450382</v>
@@ -36581,7 +36581,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B5" s="3">
         <v>0.96153846153846156</v>
@@ -36594,7 +36594,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B6" s="3">
         <v>0.7068965517241379</v>
@@ -36607,7 +36607,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B7" s="3">
         <v>0.88888888888888884</v>
@@ -36620,7 +36620,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B8" s="3">
         <v>0.27272727272727271</v>

--- a/outputs/fft-p__Firmicutes_A.xlsx
+++ b/outputs/fft-p__Firmicutes_A.xlsx
@@ -45550,7 +45550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45594,6 +45594,11 @@
           <t>rejection-0.98</t>
         </is>
       </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -45628,6 +45633,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -45662,6 +45672,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -45696,6 +45711,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -45730,6 +45750,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -45764,6 +45789,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -45798,6 +45828,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -45832,6 +45867,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
@@ -45866,6 +45906,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -45900,6 +45945,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -45934,6 +45984,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -45968,6 +46023,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -46002,6 +46062,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -46036,6 +46101,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
@@ -46070,6 +46140,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
@@ -46104,6 +46179,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -46138,6 +46218,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -46172,6 +46257,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -46206,6 +46296,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -46240,6 +46335,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -46274,6 +46374,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -46308,6 +46413,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -46342,6 +46452,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
@@ -46376,6 +46491,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
@@ -46410,6 +46530,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
@@ -46444,6 +46569,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
@@ -46478,6 +46608,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
@@ -46512,6 +46647,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
@@ -46546,6 +46686,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
@@ -46580,6 +46725,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
@@ -46614,6 +46764,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
@@ -46648,6 +46803,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
@@ -46682,6 +46842,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
@@ -46716,6 +46881,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
@@ -46750,6 +46920,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
@@ -46784,6 +46959,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
@@ -46818,6 +46998,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
@@ -46852,6 +47037,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
@@ -46886,6 +47076,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
@@ -46920,6 +47115,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
@@ -46954,6 +47154,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
@@ -46988,6 +47193,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
@@ -47022,6 +47232,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
@@ -47056,6 +47271,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
@@ -47090,6 +47310,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
@@ -47124,6 +47349,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
@@ -47158,6 +47388,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
@@ -47192,6 +47427,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
@@ -47226,6 +47466,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
@@ -47260,6 +47505,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
@@ -47294,6 +47544,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
@@ -47328,6 +47583,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
@@ -47362,6 +47622,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="inlineStr">
@@ -47396,6 +47661,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="inlineStr">
@@ -47430,6 +47700,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
@@ -47464,6 +47739,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
@@ -47498,6 +47778,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
@@ -47532,6 +47817,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="inlineStr">
@@ -47562,6 +47852,11 @@
         </is>
       </c>
       <c r="H59" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>c__Clostridia</t>
         </is>
@@ -47578,7 +47873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47622,6 +47917,11 @@
           <t>rejection-0.98</t>
         </is>
       </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -47656,6 +47956,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -47690,6 +47995,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -47724,6 +48034,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -47758,6 +48073,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -47792,6 +48112,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -47826,6 +48151,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -47860,6 +48190,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
@@ -47894,6 +48229,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -47928,6 +48268,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -47962,6 +48307,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -47996,6 +48346,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -48030,6 +48385,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -48064,6 +48424,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
@@ -48098,6 +48463,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
@@ -48132,6 +48502,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -48166,6 +48541,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -48200,6 +48580,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -48234,6 +48619,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -48268,6 +48658,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -48302,6 +48697,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -48336,6 +48736,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -48370,6 +48775,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
@@ -48404,6 +48814,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
@@ -48438,6 +48853,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
@@ -48472,6 +48892,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
@@ -48506,6 +48931,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
@@ -48540,6 +48970,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
@@ -48574,6 +49009,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
@@ -48608,6 +49048,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
@@ -48642,6 +49087,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
@@ -48676,6 +49126,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
@@ -48710,6 +49165,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
@@ -48744,6 +49204,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
@@ -48778,6 +49243,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
@@ -48812,6 +49282,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
@@ -48846,6 +49321,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
@@ -48880,6 +49360,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
@@ -48914,6 +49399,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
@@ -48948,6 +49438,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
@@ -48982,6 +49477,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
@@ -49016,6 +49516,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
@@ -49050,6 +49555,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
@@ -49084,6 +49594,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
@@ -49118,6 +49633,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
@@ -49152,6 +49672,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
@@ -49186,6 +49711,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
@@ -49220,6 +49750,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
@@ -49254,6 +49789,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
@@ -49288,6 +49828,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
@@ -49322,6 +49867,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
@@ -49356,6 +49906,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
@@ -49386,6 +49941,11 @@
         </is>
       </c>
       <c r="H53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>reject</t>
         </is>
@@ -49402,7 +49962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49446,6 +50006,11 @@
           <t>rejection-0.98</t>
         </is>
       </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -49480,6 +50045,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -49514,6 +50084,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -49548,6 +50123,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -49582,6 +50162,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -49616,6 +50201,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -49650,6 +50240,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -49684,6 +50279,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
@@ -49718,6 +50318,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -49752,6 +50357,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -49786,6 +50396,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -49820,6 +50435,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -49854,6 +50474,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -49888,6 +50513,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
@@ -49922,6 +50552,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
@@ -49956,6 +50591,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -49990,6 +50630,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -50024,6 +50669,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -50058,6 +50708,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -50092,6 +50747,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -50126,6 +50786,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -50160,6 +50825,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -50194,6 +50864,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
@@ -50228,6 +50903,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
@@ -50262,6 +50942,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
@@ -50296,6 +50981,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
@@ -50330,6 +51020,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
@@ -50364,6 +51059,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
@@ -50398,6 +51098,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
@@ -50432,6 +51137,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
@@ -50466,6 +51176,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
@@ -50500,6 +51215,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
@@ -50534,6 +51254,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
@@ -50568,6 +51293,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
@@ -50602,6 +51332,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
@@ -50636,6 +51371,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
@@ -50670,6 +51410,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
@@ -50704,6 +51449,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
@@ -50738,6 +51488,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
@@ -50772,6 +51527,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
@@ -50806,6 +51566,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
@@ -50840,6 +51605,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
@@ -50874,6 +51644,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
@@ -50908,6 +51683,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
@@ -50942,6 +51722,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
@@ -50976,6 +51761,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
@@ -51010,6 +51800,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
@@ -51044,6 +51839,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
@@ -51078,6 +51878,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
@@ -51112,6 +51917,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
@@ -51146,6 +51956,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
@@ -51180,6 +51995,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
@@ -51214,6 +52034,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="inlineStr">
@@ -51248,6 +52073,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="inlineStr">
@@ -51282,6 +52112,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
@@ -51316,6 +52151,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
@@ -51350,6 +52190,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
@@ -51384,6 +52229,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="inlineStr">
@@ -51418,6 +52268,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="inlineStr">
@@ -51452,6 +52307,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
@@ -51486,6 +52346,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="inlineStr">
@@ -51520,6 +52385,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="inlineStr">
@@ -51554,6 +52424,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
@@ -51588,6 +52463,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="inlineStr">
@@ -51622,6 +52502,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="6" t="inlineStr">
@@ -51656,6 +52541,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="6" t="inlineStr">
@@ -51690,6 +52580,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="inlineStr">
@@ -51724,6 +52619,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="6" t="inlineStr">
@@ -51758,6 +52658,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="6" t="inlineStr">
@@ -51792,6 +52697,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="6" t="inlineStr">
@@ -51826,6 +52736,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="6" t="inlineStr">
@@ -51860,6 +52775,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="6" t="inlineStr">
@@ -51894,6 +52814,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="6" t="inlineStr">
@@ -51928,6 +52853,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="6" t="inlineStr">
@@ -51962,6 +52892,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="6" t="inlineStr">
@@ -51996,6 +52931,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="6" t="inlineStr">
@@ -52030,6 +52970,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="6" t="inlineStr">
@@ -52064,6 +53009,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="6" t="inlineStr">
@@ -52098,6 +53048,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="6" t="inlineStr">
@@ -52132,6 +53087,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="6" t="inlineStr">
@@ -52166,6 +53126,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="6" t="inlineStr">
@@ -52200,6 +53165,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="6" t="inlineStr">
@@ -52234,6 +53204,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="6" t="inlineStr">
@@ -52268,6 +53243,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="6" t="inlineStr">
@@ -52302,6 +53282,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="6" t="inlineStr">
@@ -52336,6 +53321,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="6" t="inlineStr">
@@ -52370,6 +53360,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="6" t="inlineStr">
@@ -52404,6 +53399,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="inlineStr">
@@ -52438,6 +53438,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="6" t="inlineStr">
@@ -52472,6 +53477,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="6" t="inlineStr">
@@ -52506,6 +53516,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="inlineStr">
@@ -52540,6 +53555,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="inlineStr">
@@ -52574,6 +53594,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="inlineStr">
@@ -52608,6 +53633,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="6" t="inlineStr">
@@ -52642,6 +53672,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="inlineStr">
@@ -52676,6 +53711,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="6" t="inlineStr">
@@ -52710,6 +53750,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="inlineStr">
@@ -52744,6 +53789,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="inlineStr">
@@ -52778,6 +53828,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="6" t="inlineStr">
@@ -52812,6 +53867,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="inlineStr">
@@ -52846,6 +53906,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="6" t="inlineStr">
@@ -52880,6 +53945,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="inlineStr">
@@ -52914,6 +53984,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="6" t="inlineStr">
@@ -52948,6 +54023,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="inlineStr">
@@ -52982,6 +54062,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="6" t="inlineStr">
@@ -53016,6 +54101,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="6" t="inlineStr">
@@ -53050,6 +54140,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="inlineStr">
@@ -53084,6 +54179,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="6" t="inlineStr">
@@ -53118,6 +54218,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="6" t="inlineStr">
@@ -53152,6 +54257,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="6" t="inlineStr">
@@ -53186,6 +54296,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="6" t="inlineStr">
@@ -53220,6 +54335,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="inlineStr">
@@ -53254,6 +54374,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="6" t="inlineStr">
@@ -53288,6 +54413,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="6" t="inlineStr">
@@ -53322,6 +54452,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="inlineStr">
@@ -53356,6 +54491,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="6" t="inlineStr">
@@ -53390,6 +54530,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="6" t="inlineStr">
@@ -53424,6 +54569,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="inlineStr">
@@ -53458,6 +54608,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="inlineStr">
@@ -53492,6 +54647,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="6" t="inlineStr">
@@ -53526,6 +54686,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="6" t="inlineStr">
@@ -53560,6 +54725,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="inlineStr">
@@ -53594,6 +54764,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="inlineStr">
@@ -53628,6 +54803,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="inlineStr">
@@ -53662,6 +54842,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="inlineStr">
@@ -53696,6 +54881,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="inlineStr">
@@ -53730,6 +54920,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="inlineStr">
@@ -53764,6 +54959,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="6" t="inlineStr">
@@ -53798,6 +54998,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="6" t="inlineStr">
@@ -53832,6 +55037,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="6" t="inlineStr">
@@ -53866,6 +55076,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="6" t="inlineStr">
@@ -53896,6 +55111,11 @@
         </is>
       </c>
       <c r="H132" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>reject</t>
         </is>
@@ -56620,7 +57840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56664,6 +57884,11 @@
           <t>rejection-0.98</t>
         </is>
       </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -56698,6 +57923,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -56732,6 +57962,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -56766,6 +58001,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -56800,6 +58040,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -56834,6 +58079,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -56868,6 +58118,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -56902,6 +58157,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
@@ -56936,6 +58196,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -56970,6 +58235,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -57004,6 +58274,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -57038,6 +58313,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -57072,6 +58352,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -57106,6 +58391,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
@@ -57140,6 +58430,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
@@ -57174,6 +58469,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -57208,6 +58508,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -57242,6 +58547,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -57276,6 +58586,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -57310,6 +58625,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -57344,6 +58664,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -57378,6 +58703,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -57412,6 +58742,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
@@ -57446,6 +58781,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
@@ -57480,6 +58820,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
@@ -57514,6 +58859,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
@@ -57548,6 +58898,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
@@ -57582,6 +58937,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
@@ -57616,6 +58976,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
@@ -57650,6 +59015,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
@@ -57684,6 +59054,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
@@ -57718,6 +59093,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
@@ -57752,6 +59132,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
@@ -57786,6 +59171,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
@@ -57820,6 +59210,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
@@ -57850,6 +59245,11 @@
         </is>
       </c>
       <c r="H36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>reject</t>
         </is>
@@ -57866,7 +59266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57910,6 +59310,11 @@
           <t>rejection-0.98</t>
         </is>
       </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -57944,6 +59349,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -57978,6 +59388,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -58012,6 +59427,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -58046,6 +59466,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -58080,6 +59505,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -58114,6 +59544,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -58148,6 +59583,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
@@ -58182,6 +59622,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -58216,6 +59661,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -58250,6 +59700,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -58284,6 +59739,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -58318,6 +59778,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -58352,6 +59817,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
@@ -58386,6 +59856,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
@@ -58420,6 +59895,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -58454,6 +59934,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -58488,6 +59973,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -58522,6 +60012,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -58556,6 +60051,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -58590,6 +60090,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -58624,6 +60129,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -58658,6 +60168,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
@@ -58692,6 +60207,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
@@ -58726,6 +60246,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
@@ -58760,6 +60285,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
@@ -58794,6 +60324,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
@@ -58828,6 +60363,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
@@ -58862,6 +60402,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
@@ -58896,6 +60441,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
@@ -58930,6 +60480,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
@@ -58964,6 +60519,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
@@ -58998,6 +60558,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
@@ -59032,6 +60597,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
@@ -59066,6 +60636,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
@@ -59100,6 +60675,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
@@ -59134,6 +60714,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
@@ -59168,6 +60753,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
@@ -59202,6 +60792,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
@@ -59236,6 +60831,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
@@ -59270,6 +60870,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
@@ -59304,6 +60909,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
@@ -59338,6 +60948,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
@@ -59372,6 +60987,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
@@ -59406,6 +61026,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
@@ -59440,6 +61065,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
@@ -59474,6 +61104,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
@@ -59508,6 +61143,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
@@ -59542,6 +61182,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
@@ -59576,6 +61221,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
@@ -59610,6 +61260,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
@@ -59644,6 +61299,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
@@ -59678,6 +61338,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="inlineStr">
@@ -59712,6 +61377,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="inlineStr">
@@ -59746,6 +61416,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
@@ -59780,6 +61455,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
@@ -59814,6 +61494,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
@@ -59848,6 +61533,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="inlineStr">
@@ -59882,6 +61572,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="inlineStr">
@@ -59916,6 +61611,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
@@ -59950,6 +61650,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="inlineStr">
@@ -59984,6 +61689,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="inlineStr">
@@ -60018,6 +61728,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
@@ -60052,6 +61767,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="inlineStr">
@@ -60086,6 +61806,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="6" t="inlineStr">
@@ -60120,6 +61845,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="6" t="inlineStr">
@@ -60154,6 +61884,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="inlineStr">
@@ -60188,6 +61923,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="6" t="inlineStr">
@@ -60222,6 +61962,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="6" t="inlineStr">
@@ -60256,6 +62001,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="6" t="inlineStr">
@@ -60290,6 +62040,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="6" t="inlineStr">
@@ -60324,6 +62079,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="6" t="inlineStr">
@@ -60358,6 +62118,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="6" t="inlineStr">
@@ -60392,6 +62157,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="6" t="inlineStr">
@@ -60426,6 +62196,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="6" t="inlineStr">
@@ -60460,6 +62235,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="6" t="inlineStr">
@@ -60494,6 +62274,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="6" t="inlineStr">
@@ -60528,6 +62313,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="6" t="inlineStr">
@@ -60562,6 +62352,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="6" t="inlineStr">
@@ -60596,6 +62391,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="6" t="inlineStr">
@@ -60630,6 +62430,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="6" t="inlineStr">
@@ -60664,6 +62469,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="6" t="inlineStr">
@@ -60698,6 +62508,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="6" t="inlineStr">
@@ -60732,6 +62547,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="6" t="inlineStr">
@@ -60766,6 +62586,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="6" t="inlineStr">
@@ -60800,6 +62625,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="6" t="inlineStr">
@@ -60834,6 +62664,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="6" t="inlineStr">
@@ -60868,6 +62703,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="inlineStr">
@@ -60902,6 +62742,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="6" t="inlineStr">
@@ -60936,6 +62781,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="6" t="inlineStr">
@@ -60970,6 +62820,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="inlineStr">
@@ -61004,6 +62859,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="inlineStr">
@@ -61038,6 +62898,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="inlineStr">
@@ -61072,6 +62937,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="6" t="inlineStr">
@@ -61106,6 +62976,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="inlineStr">
@@ -61140,6 +63015,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="6" t="inlineStr">
@@ -61174,6 +63054,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="inlineStr">
@@ -61208,6 +63093,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="inlineStr">
@@ -61242,6 +63132,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="6" t="inlineStr">
@@ -61276,6 +63171,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="inlineStr">
@@ -61310,6 +63210,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="6" t="inlineStr">
@@ -61344,6 +63249,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="inlineStr">
@@ -61378,6 +63288,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="6" t="inlineStr">
@@ -61412,6 +63327,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="inlineStr">
@@ -61446,6 +63366,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="6" t="inlineStr">
@@ -61480,6 +63405,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="6" t="inlineStr">
@@ -61514,6 +63444,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="inlineStr">
@@ -61548,6 +63483,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="6" t="inlineStr">
@@ -61582,6 +63522,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="6" t="inlineStr">
@@ -61616,6 +63561,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="6" t="inlineStr">
@@ -61650,6 +63600,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="6" t="inlineStr">
@@ -61684,6 +63639,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="inlineStr">
@@ -61718,6 +63678,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="6" t="inlineStr">
@@ -61752,6 +63717,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="6" t="inlineStr">
@@ -61786,6 +63756,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="inlineStr">
@@ -61820,6 +63795,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="6" t="inlineStr">
@@ -61854,6 +63834,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="6" t="inlineStr">
@@ -61888,6 +63873,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="inlineStr">
@@ -61922,6 +63912,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="inlineStr">
@@ -61956,6 +63951,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="6" t="inlineStr">
@@ -61990,6 +63990,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="6" t="inlineStr">
@@ -62024,6 +64029,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="inlineStr">
@@ -62058,6 +64068,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="inlineStr">
@@ -62092,6 +64107,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="inlineStr">
@@ -62126,6 +64146,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="inlineStr">
@@ -62160,6 +64185,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="inlineStr">
@@ -62194,6 +64224,11 @@
           <t>reject</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="inlineStr">
@@ -62224,6 +64259,11 @@
         </is>
       </c>
       <c r="H128" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>reject</t>
         </is>

--- a/outputs/fft-p__Firmicutes_A.xlsx
+++ b/outputs/fft-p__Firmicutes_A.xlsx
@@ -45674,7 +45674,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -45713,7 +45713,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -45791,7 +45791,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -45869,7 +45869,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -46337,7 +46337,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -46571,7 +46571,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -47468,7 +47468,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -47585,7 +47585,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -47741,7 +47741,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -47819,7 +47819,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -49401,7 +49401,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -50671,7 +50671,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -50749,7 +50749,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -50788,7 +50788,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -51139,7 +51139,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -51217,7 +51217,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -51802,7 +51802,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -51919,7 +51919,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -52075,7 +52075,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -52192,7 +52192,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -52426,7 +52426,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -52816,7 +52816,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -52933,7 +52933,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -53011,7 +53011,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -53050,7 +53050,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -53284,7 +53284,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -53362,7 +53362,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -53557,7 +53557,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -53791,7 +53791,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -53830,7 +53830,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -53947,7 +53947,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -54259,7 +54259,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -54532,7 +54532,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -54571,7 +54571,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -54610,7 +54610,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -54805,7 +54805,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -58354,7 +58354,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
@@ -61184,7 +61184,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>reject</t>
         </is>
       </c>
     </row>
